--- a/selected_particles/5_particle_selection.xlsx
+++ b/selected_particles/5_particle_selection.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="5_particle_selection" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'5_particle_selection'!$A$1:$I$39</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>frame</t>
   </si>
@@ -28,10 +30,16 @@
     <t>size</t>
   </si>
   <si>
+    <t>actual_size</t>
+  </si>
+  <si>
     <t>video</t>
   </si>
   <si>
     <t>usable</t>
+  </si>
+  <si>
+    <t>usable_tomer</t>
   </si>
 </sst>
 </file>
@@ -89,10 +97,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="3.86"/>
-    <col customWidth="1" min="4" max="4" width="5.43"/>
+    <col customWidth="1" min="3" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="5.71"/>
+    <col customWidth="1" min="6" max="7" width="5.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -117,6 +124,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -135,13 +148,16 @@
         <v>13.3671616201568</v>
       </c>
       <c r="F2" s="1">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="G2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" hidden="1">
       <c r="A3" s="1">
         <v>0.0</v>
       </c>
@@ -157,14 +173,15 @@
       <c r="E3" s="1">
         <v>10.4620697213158</v>
       </c>
-      <c r="F3" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>0.0</v>
       </c>
@@ -180,14 +197,15 @@
       <c r="E4" s="1">
         <v>17.9479384351273</v>
       </c>
-      <c r="F4" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
@@ -203,10 +221,11 @@
       <c r="E5" s="1">
         <v>12.3465775445958</v>
       </c>
-      <c r="F5" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -227,9 +246,12 @@
         <v>9.66367143483013</v>
       </c>
       <c r="F6" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -250,13 +272,16 @@
         <v>9.65523339077464</v>
       </c>
       <c r="F7" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="1">
         <v>0.0</v>
       </c>
@@ -272,14 +297,15 @@
       <c r="E8" s="1">
         <v>18.6070903042639</v>
       </c>
-      <c r="F8" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>0.0</v>
       </c>
@@ -295,14 +321,15 @@
       <c r="E9" s="1">
         <v>11.3825209275432</v>
       </c>
-      <c r="F9" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="1">
         <v>0.0</v>
       </c>
@@ -318,14 +345,15 @@
       <c r="E10" s="1">
         <v>17.9737116324579</v>
       </c>
-      <c r="F10" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>5.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>0.0</v>
       </c>
@@ -341,14 +369,15 @@
       <c r="E11" s="1">
         <v>10.6828680080226</v>
       </c>
-      <c r="F11" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>0.0</v>
       </c>
@@ -364,11 +393,12 @@
       <c r="E12" s="1">
         <v>9.0828640010558</v>
       </c>
-      <c r="F12" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -388,13 +418,16 @@
         <v>12.125001825077</v>
       </c>
       <c r="F13" s="1">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>5.0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="1">
         <v>0.0</v>
       </c>
@@ -410,14 +443,15 @@
       <c r="E14" s="1">
         <v>11.0445210540113</v>
       </c>
-      <c r="F14" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="1">
         <v>0.0</v>
       </c>
@@ -433,14 +467,15 @@
       <c r="E15" s="1">
         <v>13.1851885173056</v>
       </c>
-      <c r="F15" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>5.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="1">
         <v>0.0</v>
       </c>
@@ -456,14 +491,15 @@
       <c r="E16" s="1">
         <v>21.422508171277</v>
       </c>
-      <c r="F16" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>0.0</v>
       </c>
@@ -479,14 +515,15 @@
       <c r="E17" s="1">
         <v>17.3915799378627</v>
       </c>
-      <c r="F17" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="1">
         <v>0.0</v>
       </c>
@@ -502,10 +539,11 @@
       <c r="E18" s="1">
         <v>19.8267139281931</v>
       </c>
-      <c r="F18" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -526,9 +564,12 @@
         <v>11.5495247468898</v>
       </c>
       <c r="F19" s="1">
-        <v>5.0</v>
+        <v>13.5</v>
       </c>
       <c r="G19" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H19" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -549,9 +590,12 @@
         <v>15.6981571907348</v>
       </c>
       <c r="F20" s="1">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H20" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -572,13 +616,16 @@
         <v>13.5922409022541</v>
       </c>
       <c r="F21" s="1">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="G21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
       <c r="A22" s="1">
         <v>0.0</v>
       </c>
@@ -594,10 +641,11 @@
       <c r="E22" s="1">
         <v>10.9336566768103</v>
       </c>
-      <c r="F22" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -618,13 +666,16 @@
         <v>11.1646192688527</v>
       </c>
       <c r="F23" s="1">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="G23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>5.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
       <c r="A24" s="1">
         <v>0.0</v>
       </c>
@@ -640,10 +691,11 @@
       <c r="E24" s="1">
         <v>13.2097800786017</v>
       </c>
-      <c r="F24" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -664,13 +716,16 @@
         <v>10.5605287665357</v>
       </c>
       <c r="F25" s="1">
-        <v>5.0</v>
+        <v>12.5</v>
       </c>
       <c r="G25" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="1">
         <v>0.0</v>
       </c>
@@ -686,14 +741,15 @@
       <c r="E26" s="1">
         <v>12.8453066712248</v>
       </c>
-      <c r="F26" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>5.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="1">
         <v>0.0</v>
       </c>
@@ -709,10 +765,11 @@
       <c r="E27" s="1">
         <v>20.1557091185367</v>
       </c>
-      <c r="F27" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -733,9 +790,12 @@
         <v>10.3880665408068</v>
       </c>
       <c r="F28" s="1">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="G28" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -756,13 +816,16 @@
         <v>10.4856011710224</v>
       </c>
       <c r="F29" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="G29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>5.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="1">
         <v>0.0</v>
       </c>
@@ -778,14 +841,15 @@
       <c r="E30" s="1">
         <v>15.7900378709056</v>
       </c>
-      <c r="F30" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>5.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>0.0</v>
       </c>
@@ -802,13 +866,19 @@
         <v>14.8260108233458</v>
       </c>
       <c r="F31" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>5.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="1">
         <v>0.0</v>
       </c>
@@ -824,14 +894,15 @@
       <c r="E32" s="1">
         <v>18.2971248509234</v>
       </c>
-      <c r="F32" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>0.0</v>
       </c>
@@ -847,14 +918,15 @@
       <c r="E33" s="1">
         <v>14.381359974742</v>
       </c>
-      <c r="F33" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>5.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="1">
         <v>0.0</v>
       </c>
@@ -870,14 +942,15 @@
       <c r="E34" s="1">
         <v>17.2482698055225</v>
       </c>
-      <c r="F34" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>5.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="1">
         <v>0.0</v>
       </c>
@@ -893,14 +966,15 @@
       <c r="E35" s="1">
         <v>17.190715543877</v>
       </c>
-      <c r="F35" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
       <c r="A36" s="1">
         <v>0.0</v>
       </c>
@@ -916,10 +990,11 @@
       <c r="E36" s="1">
         <v>10.2850410807907</v>
       </c>
-      <c r="F36" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -940,13 +1015,16 @@
         <v>9.84764223153682</v>
       </c>
       <c r="F37" s="1">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>5.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
       <c r="A38" s="1">
         <v>0.0</v>
       </c>
@@ -962,10 +1040,14 @@
       <c r="E38" s="1">
         <v>18.0597451513466</v>
       </c>
-      <c r="F38" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I38" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -986,13 +1068,23 @@
         <v>10.8492156636066</v>
       </c>
       <c r="F39" s="1">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="G39" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H39" s="1">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$I$39">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>